--- a/Rough.xlsx
+++ b/Rough.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aman Kumar Yadav\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D74440-9689-4FD5-B397-3F1DE2AB3CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FEADCA1-5280-4B12-AA49-D89B72B29087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -62,9 +60,6 @@
     <t>Assessable Value Amount</t>
   </si>
   <si>
-    <t>Total Duty Paid Amount</t>
-  </si>
-  <si>
     <t>Effective Rate of duty (BCD@35% + SWS@10% + IGST@28%)</t>
   </si>
   <si>
@@ -99,6 +94,72 @@
   </si>
   <si>
     <t>IGST Rate</t>
+  </si>
+  <si>
+    <t>IEC Code</t>
+  </si>
+  <si>
+    <t>CHA details</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Item Number</t>
+  </si>
+  <si>
+    <t>QUANTITY</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>BCD Amount</t>
+  </si>
+  <si>
+    <t>BCD Notification</t>
+  </si>
+  <si>
+    <t>BCD Notification Serial Number</t>
+  </si>
+  <si>
+    <t>IGST Amount</t>
+  </si>
+  <si>
+    <t>IGST Notification</t>
+  </si>
+  <si>
+    <t>IGST Notification Serial Number</t>
+  </si>
+  <si>
+    <t>Total Duty Amount</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Cabbage</t>
+  </si>
+  <si>
+    <t>050/2017</t>
+  </si>
+  <si>
+    <t>001/2017</t>
+  </si>
+  <si>
+    <t>III40</t>
+  </si>
+  <si>
+    <t>051/96</t>
+  </si>
+  <si>
+    <t>III395</t>
+  </si>
+  <si>
+    <t>III423</t>
+  </si>
+  <si>
+    <t>96A</t>
   </si>
 </sst>
 </file>
@@ -114,15 +175,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -169,24 +230,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,199 +539,346 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:26" s="7" customFormat="1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="U1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>8568569</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44350</v>
+      </c>
+      <c r="D2" s="9">
+        <v>100000053</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3">
+        <v>85444999</v>
+      </c>
+      <c r="I2" s="8">
+        <v>55</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0.77280000000000004</v>
+      </c>
+      <c r="M2" s="1">
+        <v>15</v>
+      </c>
+      <c r="N2" s="9">
+        <v>849.06</v>
+      </c>
+      <c r="O2" s="9">
+        <v>63.7</v>
+      </c>
+      <c r="P2" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="9">
+        <v>185</v>
+      </c>
+      <c r="S2" s="9">
+        <v>165.4</v>
+      </c>
+      <c r="T2" s="9">
+        <v>18</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="9">
+        <v>235.5</v>
+      </c>
+      <c r="X2" s="10">
+        <v>0.77280000000000004</v>
+      </c>
+      <c r="Y2" s="11">
+        <f>N2*X2</f>
+        <v>656.15356799999995</v>
+      </c>
+      <c r="Z2" s="11">
+        <f>Y2-W2</f>
+        <v>420.65356799999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>8568569</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44350</v>
+      </c>
+      <c r="D3" s="9">
+        <v>100000053</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1">
+        <v>83249099</v>
+      </c>
+      <c r="I3" s="8">
+        <v>480</v>
+      </c>
+      <c r="J3" s="5">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0.77280000000000004</v>
+      </c>
+      <c r="M3" s="1">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
+      <c r="N3" s="9">
+        <v>25680.45</v>
+      </c>
+      <c r="O3" s="9">
+        <v>1284</v>
+      </c>
+      <c r="P3" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="9">
+        <v>1</v>
+      </c>
+      <c r="S3" s="9">
+        <v>0</v>
+      </c>
+      <c r="T3" s="9">
+        <v>0</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" s="9">
+        <v>1412.4</v>
+      </c>
+      <c r="X3" s="10">
+        <v>0.77280000000000004</v>
+      </c>
+      <c r="Y3" s="11">
+        <f t="shared" ref="Y3:Y4" si="0">N3*X3</f>
+        <v>19845.851760000001</v>
+      </c>
+      <c r="Z3" s="11">
+        <f t="shared" ref="Z3:Z4" si="1">Y3-W3</f>
+        <v>18433.45176</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>9002685</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44411</v>
+      </c>
+      <c r="D4" s="9">
+        <v>100000053</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1">
+        <v>69852480</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>8568569</v>
-      </c>
-      <c r="C2" s="3">
-        <v>44350</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4">
-        <v>85444999</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2">
-        <v>8658</v>
-      </c>
-      <c r="I2" s="7">
+      <c r="K4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.77280000000000004</v>
+      </c>
+      <c r="M4" s="1">
+        <v>18</v>
+      </c>
+      <c r="N4" s="9">
+        <v>7594.13</v>
+      </c>
+      <c r="O4" s="9">
+        <v>379.7</v>
+      </c>
+      <c r="P4" s="9">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="9">
+        <v>1</v>
+      </c>
+      <c r="S4" s="9">
         <v>0</v>
       </c>
-      <c r="J2" s="6">
+      <c r="T4" s="9">
         <v>0</v>
       </c>
-      <c r="K2" s="2">
-        <v>300</v>
-      </c>
-      <c r="L2" s="5">
+      <c r="U4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W4" s="9">
+        <v>417.7</v>
+      </c>
+      <c r="X4" s="10">
         <v>0.77280000000000004</v>
       </c>
-      <c r="M2" s="2">
-        <f>H2*L2</f>
-        <v>6690.9023999999999</v>
-      </c>
-      <c r="N2" s="2">
-        <f>M2-K2</f>
-        <v>6390.9023999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>8568569</v>
-      </c>
-      <c r="C3" s="3">
-        <v>44350</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2">
-        <v>83249099</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2">
-        <v>69475</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="J3" s="6">
-        <v>5</v>
-      </c>
-      <c r="K3" s="2">
-        <v>8567</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0.77280000000000004</v>
-      </c>
-      <c r="M3" s="2">
-        <f>H3*L3</f>
-        <v>53690.280000000006</v>
-      </c>
-      <c r="N3" s="2">
-        <f>M3-K3</f>
-        <v>45123.280000000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>9002685</v>
-      </c>
-      <c r="C4" s="3">
-        <v>44411</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="2">
-        <v>69852480</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2">
-        <v>12856</v>
-      </c>
-      <c r="I4" s="8">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="J4" s="6">
-        <v>18</v>
-      </c>
-      <c r="K4" s="2">
-        <v>5703</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0.77280000000000004</v>
-      </c>
-      <c r="M4" s="2">
-        <f>H4*L4</f>
-        <v>9935.1167999999998</v>
-      </c>
-      <c r="N4" s="2">
-        <f>M4-K4</f>
-        <v>4232.1167999999998</v>
+      <c r="Y4" s="11">
+        <f t="shared" si="0"/>
+        <v>5868.7436640000005</v>
+      </c>
+      <c r="Z4" s="11">
+        <f t="shared" si="1"/>
+        <v>5451.0436640000007</v>
       </c>
     </row>
   </sheetData>
